--- a/server/data/btc-9pm-9am-backtest.xlsx
+++ b/server/data/btc-9pm-9am-backtest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codeputs\ongoing\python_trading\crypto_option_deltaexchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codeputs\ongoing\crypto_option_deltaexchange\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968E662B-5C16-4382-B1B0-F51855C64E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31333604-0792-4CAC-9093-91160E99D88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5315,7 +5315,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5423,7 +5423,7 @@
         <v>200.50335570469798</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>249.65585054080628</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>38.386783284742471</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>-45.161290322580641</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>-18.839200761179828</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>-12.941176470588237</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>111.39122315592904</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>78.329809725158555</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -7142,7 +7142,7 @@
   <autoFilter ref="A1:N33" xr:uid="{AF888B8E-A641-4ACC-8E3F-A2F3D98364F7}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Tuesday"/>
+        <filter val="Saturday"/>
       </filters>
     </filterColumn>
   </autoFilter>
